--- a/Open Source task.xlsx
+++ b/Open Source task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legion\Desktop\open-source\Security-Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayar\Security-Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655120EA-671F-4435-B8F2-FC3A0DB523E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AEABCC-794D-472D-8B0C-114E9365738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A782380-5C03-4ABF-949C-B3350E41F3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1A782380-5C03-4ABF-949C-B3350E41F3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <t>Repo Link</t>
   </si>
   <si>
-    <t>https://github.com/0xkillua/Security-Task.git</t>
+    <t>https://github.com/moaaz311/Tradex.git</t>
   </si>
   <si>
-    <t>heikalsayed@gmail.com</t>
+    <t>mayarhesham673@gmail.com</t>
   </si>
   <si>
-    <t>السيد اسامه رجب السيد</t>
+    <t>ميار هشام محمد جلال</t>
   </si>
 </sst>
 </file>
